--- a/biology/Botanique/Respiration_végétale/Respiration_végétale.xlsx
+++ b/biology/Botanique/Respiration_végétale/Respiration_végétale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Respiration_v%C3%A9g%C3%A9tale</t>
+          <t>Respiration_végétale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La respiration végétale est le processus de respiration qui a lieu dans une plante.  
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Respiration_v%C3%A9g%C3%A9tale</t>
+          <t>Respiration_végétale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Types</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe deux types de respiration chez les plantes :
 La respiration cellulaire ou mitochondriale, qui intervient en permanence, jour et nuit, par absorption d'oxygène (O2), rejet de gaz carbonique (CO2) et rejet de vapeur d'eau (H2O vapeur). Elle est assurée par la chaîne respiratoire située dans la membrane des mitochondries.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Respiration_v%C3%A9g%C3%A9tale</t>
+          <t>Respiration_végétale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Respiration cellulaire ou mitochondriale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La respiration cellulaire (dite aussi "respiration végétale" chez les plantes) est une réaction chimique à l'échelle de la cellule qui produit de l'énergie en oxydant les sucres issus de la photosynthèse.
 Formule chimique : C6H12O6 + 6 O2 → 6 CO2 + 6 H2O + énergie
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Respiration_v%C3%A9g%C3%A9tale</t>
+          <t>Respiration_végétale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Photosynthèse et respiration</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La photosynthèse est une réaction chimique produit par la lumière du soleil dans les plantes vertes (contenant de la chlorophylle).
 La réaction utilise l'eau (H2O) puisée dans le sol par les racines et le gaz carbonique (CO2) capté dans l'air par les feuilles.
